--- a/constants.xlsx
+++ b/constants.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="const" sheetId="1" r:id="rId1"/>
@@ -567,9 +567,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -720,8 +718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/constants.xlsx
+++ b/constants.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="const" sheetId="1" r:id="rId1"/>
@@ -22,36 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="65">
   <si>
-    <t>Показатель адиабаты</t>
-  </si>
-  <si>
-    <t>Абсолютная плотность</t>
-  </si>
-  <si>
-    <t>Молярная масса</t>
-  </si>
-  <si>
-    <t>Газовая постоянная</t>
-  </si>
-  <si>
-    <t>Относительная плотность</t>
-  </si>
-  <si>
-    <t>Теплота сгорания</t>
-  </si>
-  <si>
-    <t>Объём окислителя для горения</t>
-  </si>
-  <si>
-    <t>Метан, CH4:</t>
-  </si>
-  <si>
-    <t>Диоксид углерода, CO2:</t>
-  </si>
-  <si>
-    <t>Атмосферный воздух:</t>
-  </si>
-  <si>
     <t>16.043</t>
   </si>
   <si>
@@ -94,102 +64,36 @@
     <t>1.293</t>
   </si>
   <si>
-    <t>Компонентный состав:</t>
-  </si>
-  <si>
-    <t>Метан</t>
-  </si>
-  <si>
-    <t>Диоксид углерода</t>
-  </si>
-  <si>
-    <t>Давление газа:</t>
-  </si>
-  <si>
-    <t>Избыточное</t>
-  </si>
-  <si>
-    <t>Мощность горелки:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N = </t>
-  </si>
-  <si>
-    <t>Коэффициент пер. воздуха</t>
-  </si>
-  <si>
-    <t>альфа</t>
-  </si>
-  <si>
     <t>0.5</t>
   </si>
   <si>
-    <t>Начальная температура газа принятого состава t = :</t>
-  </si>
-  <si>
-    <t>Атмосферное давление:</t>
-  </si>
-  <si>
-    <t>Форма огневых отверстий</t>
-  </si>
-  <si>
     <t>7.1</t>
   </si>
   <si>
-    <t>Круглого сечения:</t>
-  </si>
-  <si>
-    <t>диаметр</t>
-  </si>
-  <si>
     <t>0.00319</t>
   </si>
   <si>
-    <t>шаг</t>
-  </si>
-  <si>
     <t>0.0001</t>
   </si>
   <si>
     <t>7.2</t>
   </si>
   <si>
-    <t>ширина</t>
-  </si>
-  <si>
-    <t>высота</t>
-  </si>
-  <si>
     <t>0.002</t>
   </si>
   <si>
-    <t>Прямоугльного сечения:</t>
-  </si>
-  <si>
     <t>8</t>
   </si>
   <si>
-    <t>Огневые отверстия:</t>
-  </si>
-  <si>
     <t>9</t>
   </si>
   <si>
     <t>0.89</t>
   </si>
   <si>
-    <t>Коэф. Расхода отверстий головки:</t>
-  </si>
-  <si>
-    <t>Коэф. Расхода сопла горелки:</t>
-  </si>
-  <si>
     <t>0.9</t>
   </si>
   <si>
-    <t>Коэф. Потерь эжекционной трубки(1.5 or 2.1 or 3)</t>
-  </si>
-  <si>
     <t>1.5</t>
   </si>
   <si>
@@ -202,19 +106,115 @@
     <t>12</t>
   </si>
   <si>
-    <t>Температура крышки горелки</t>
-  </si>
-  <si>
     <t>350</t>
   </si>
   <si>
     <t>13</t>
   </si>
   <si>
-    <t>Коэф. Теплоотдачи внут. П. крышки</t>
-  </si>
-  <si>
     <t>2.5</t>
+  </si>
+  <si>
+    <t>CH4:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CO2:</t>
+  </si>
+  <si>
+    <t>air</t>
+  </si>
+  <si>
+    <t>Molar mass</t>
+  </si>
+  <si>
+    <t>Gas constant</t>
+  </si>
+  <si>
+    <t>Adiabatic exponent</t>
+  </si>
+  <si>
+    <t>Absolute density</t>
+  </si>
+  <si>
+    <t>Relative density</t>
+  </si>
+  <si>
+    <t>Heat of combustion</t>
+  </si>
+  <si>
+    <t>The amount of oxidizer for combustion</t>
+  </si>
+  <si>
+    <t>Component composition:</t>
+  </si>
+  <si>
+    <t>Methane</t>
+  </si>
+  <si>
+    <t>Carbon dioxide</t>
+  </si>
+  <si>
+    <t>Gas pressure:</t>
+  </si>
+  <si>
+    <t>Excessive</t>
+  </si>
+  <si>
+    <t>Burner power:</t>
+  </si>
+  <si>
+    <t>N =</t>
+  </si>
+  <si>
+    <t>Coefficient of lane air</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>The initial gas temperature of the accepted composition is t =:</t>
+  </si>
+  <si>
+    <t>Atmosphere pressure:</t>
+  </si>
+  <si>
+    <t>The shape of the firing holes</t>
+  </si>
+  <si>
+    <t>Round section:</t>
+  </si>
+  <si>
+    <t>diameter</t>
+  </si>
+  <si>
+    <t>step</t>
+  </si>
+  <si>
+    <t>Rectangular section:</t>
+  </si>
+  <si>
+    <t>width</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>Fire holes:</t>
+  </si>
+  <si>
+    <t>Coef. Head bore flow rate:</t>
+  </si>
+  <si>
+    <t>Coef. Burner nozzle flow:</t>
+  </si>
+  <si>
+    <t>Coef. Loss of ejection tube (1.5 or 2.1 or 3)</t>
+  </si>
+  <si>
+    <t>Burner cover temperature</t>
+  </si>
+  <si>
+    <t>Coef. Heat transfer int. P. cover</t>
   </si>
 </sst>
 </file>
@@ -567,7 +567,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -580,130 +582,130 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="1" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="C6" s="3" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="C7" s="3" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>16</v>
-      </c>
       <c r="C8" s="3" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -718,8 +720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -734,12 +736,12 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="C2" s="8">
         <v>50</v>
@@ -747,7 +749,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C3" s="8">
         <v>50</v>
@@ -758,12 +760,12 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="C5" s="8">
         <v>1300</v>
@@ -774,12 +776,12 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C7" s="8">
         <v>2800</v>
@@ -790,23 +792,23 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>5</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="C10" s="8">
         <v>20</v>
@@ -817,7 +819,7 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="C11" s="8">
         <v>101325</v>
@@ -828,63 +830,63 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C19" s="8">
         <v>30</v>
@@ -892,57 +894,57 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/constants.xlsx
+++ b/constants.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="const" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="70">
   <si>
     <t>16.043</t>
   </si>
@@ -67,18 +67,12 @@
     <t>0.5</t>
   </si>
   <si>
-    <t>7.1</t>
-  </si>
-  <si>
     <t>0.00319</t>
   </si>
   <si>
     <t>0.0001</t>
   </si>
   <si>
-    <t>7.2</t>
-  </si>
-  <si>
     <t>0.002</t>
   </si>
   <si>
@@ -145,30 +139,15 @@
     <t>The amount of oxidizer for combustion</t>
   </si>
   <si>
-    <t>Component composition:</t>
-  </si>
-  <si>
     <t>Methane</t>
   </si>
   <si>
     <t>Carbon dioxide</t>
   </si>
   <si>
-    <t>Gas pressure:</t>
-  </si>
-  <si>
-    <t>Excessive</t>
-  </si>
-  <si>
-    <t>Burner power:</t>
-  </si>
-  <si>
     <t>N =</t>
   </si>
   <si>
-    <t>Coefficient of lane air</t>
-  </si>
-  <si>
     <t>alpha</t>
   </si>
   <si>
@@ -178,21 +157,12 @@
     <t>Atmosphere pressure:</t>
   </si>
   <si>
-    <t>The shape of the firing holes</t>
-  </si>
-  <si>
-    <t>Round section:</t>
-  </si>
-  <si>
     <t>diameter</t>
   </si>
   <si>
     <t>step</t>
   </si>
   <si>
-    <t>Rectangular section:</t>
-  </si>
-  <si>
     <t>width</t>
   </si>
   <si>
@@ -215,6 +185,51 @@
   </si>
   <si>
     <t>Coef. Heat transfer int. P. cover</t>
+  </si>
+  <si>
+    <t>pressure</t>
+  </si>
+  <si>
+    <t>1300</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
   </si>
 </sst>
 </file>
@@ -565,10 +580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -582,133 +597,159 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>8</v>
-      </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>9</v>
-      </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>10</v>
-      </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -718,10 +759,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -732,222 +773,216 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="8">
-        <v>1</v>
+      <c r="A1" s="8" t="s">
+        <v>57</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>39</v>
+      </c>
+      <c r="C1" s="8">
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>58</v>
+      </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C2" s="8">
         <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>59</v>
+      </c>
       <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="8">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="8">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C6" s="8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
+      <c r="C7" s="8">
+        <v>101325</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="8">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C8" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
+      <c r="C9" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="8">
-        <v>2800</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="C10" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="8">
-        <v>5</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="8">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
-        <v>6</v>
-      </c>
-      <c r="B11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="8">
-        <v>101325</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="8">
-        <v>7</v>
-      </c>
-      <c r="B12" t="s">
-        <v>52</v>
+      <c r="C12" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>46</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
+        <v>64</v>
+      </c>
       <c r="B14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>16</v>
+        <v>49</v>
+      </c>
+      <c r="C14" s="8">
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>65</v>
+      </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>57</v>
+        <v>51</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>68</v>
+      </c>
       <c r="B18" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="B19" t="s">
-        <v>59</v>
-      </c>
-      <c r="C19" s="8">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" t="s">
-        <v>64</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/constants.xlsx
+++ b/constants.xlsx
@@ -8,7 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="const" sheetId="1" r:id="rId1"/>
-    <sheet name="variables" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>16.043</t>
   </si>
@@ -64,51 +63,6 @@
     <t>1.293</t>
   </si>
   <si>
-    <t>0.5</t>
-  </si>
-  <si>
-    <t>0.00319</t>
-  </si>
-  <si>
-    <t>0.0001</t>
-  </si>
-  <si>
-    <t>0.002</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>0.89</t>
-  </si>
-  <si>
-    <t>0.9</t>
-  </si>
-  <si>
-    <t>1.5</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>350</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>2.5</t>
-  </si>
-  <si>
     <t>CH4:</t>
   </si>
   <si>
@@ -139,97 +93,7 @@
     <t>The amount of oxidizer for combustion</t>
   </si>
   <si>
-    <t>Methane</t>
-  </si>
-  <si>
-    <t>Carbon dioxide</t>
-  </si>
-  <si>
-    <t>N =</t>
-  </si>
-  <si>
-    <t>alpha</t>
-  </si>
-  <si>
-    <t>The initial gas temperature of the accepted composition is t =:</t>
-  </si>
-  <si>
-    <t>Atmosphere pressure:</t>
-  </si>
-  <si>
-    <t>diameter</t>
-  </si>
-  <si>
-    <t>step</t>
-  </si>
-  <si>
-    <t>width</t>
-  </si>
-  <si>
-    <t>height</t>
-  </si>
-  <si>
-    <t>Fire holes:</t>
-  </si>
-  <si>
-    <t>Coef. Head bore flow rate:</t>
-  </si>
-  <si>
-    <t>Coef. Burner nozzle flow:</t>
-  </si>
-  <si>
-    <t>Coef. Loss of ejection tube (1.5 or 2.1 or 3)</t>
-  </si>
-  <si>
-    <t>Burner cover temperature</t>
-  </si>
-  <si>
-    <t>Coef. Heat transfer int. P. cover</t>
-  </si>
-  <si>
-    <t>pressure</t>
-  </si>
-  <si>
-    <t>1300</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
+    <t>value</t>
   </si>
 </sst>
 </file>
@@ -280,16 +144,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -582,14 +443,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30.44140625" customWidth="1"/>
-    <col min="2" max="2" width="11.77734375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" style="7" customWidth="1"/>
     <col min="3" max="3" width="31.88671875" customWidth="1"/>
     <col min="4" max="4" width="10.33203125" style="4" customWidth="1"/>
     <col min="5" max="5" width="24.77734375" customWidth="1"/>
@@ -597,25 +456,25 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>57</v>
+        <v>14</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="3"/>
@@ -623,9 +482,9 @@
     </row>
     <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="3"/>
@@ -633,9 +492,9 @@
     </row>
     <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="3"/>
@@ -643,9 +502,9 @@
     </row>
     <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="3"/>
@@ -653,9 +512,9 @@
     </row>
     <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E7" s="3"/>
@@ -663,9 +522,9 @@
     </row>
     <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E8" s="3"/>
@@ -673,312 +532,82 @@
     </row>
     <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>58</v>
+        <v>15</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>59</v>
+        <v>16</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="6.44140625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="32.6640625" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="8"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="8">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="8">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="8">
-        <v>2800</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="8">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="8">
-        <v>101325</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="8">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/constants.xlsx
+++ b/constants.xlsx
@@ -69,9 +69,6 @@
     <t xml:space="preserve"> CO2:</t>
   </si>
   <si>
-    <t>air</t>
-  </si>
-  <si>
     <t>Molar mass</t>
   </si>
   <si>
@@ -94,6 +91,9 @@
   </si>
   <si>
     <t>value</t>
+  </si>
+  <si>
+    <t>air:</t>
   </si>
 </sst>
 </file>
@@ -443,7 +443,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -459,12 +461,12 @@
         <v>14</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -472,7 +474,7 @@
     </row>
     <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>1</v>
@@ -482,7 +484,7 @@
     </row>
     <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>2</v>
@@ -492,7 +494,7 @@
     </row>
     <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>3</v>
@@ -502,7 +504,7 @@
     </row>
     <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>4</v>
@@ -512,7 +514,7 @@
     </row>
     <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>5</v>
@@ -522,7 +524,7 @@
     </row>
     <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>6</v>
@@ -535,12 +537,12 @@
         <v>15</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>7</v>
@@ -548,7 +550,7 @@
     </row>
     <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>8</v>
@@ -556,7 +558,7 @@
     </row>
     <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>9</v>
@@ -564,7 +566,7 @@
     </row>
     <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>10</v>
@@ -572,7 +574,7 @@
     </row>
     <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>11</v>
@@ -580,7 +582,7 @@
     </row>
     <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>12</v>
@@ -588,7 +590,7 @@
     </row>
     <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>12</v>
@@ -596,15 +598,15 @@
     </row>
     <row r="17" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>13</v>

--- a/constants.xlsx
+++ b/constants.xlsx
@@ -444,7 +444,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
